--- a/process/Gartner-mapping.xlsx
+++ b/process/Gartner-mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\66140\Downloads\2026\Tools\App-Rat UI Build\App-Rat\process\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\66140\Downloads\2026\Tools\App-Rat UI Build\11_02\App-Rat\process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC800F68-6FE2-4547-8AE5-E634B13BC39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B8E3AF-2273-424C-9AEC-A6A67A7CDF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,9 +146,6 @@
     <t>Threat Intelligence &amp; Response</t>
   </si>
   <si>
-    <t>Software Development &amp; Mgmt.</t>
-  </si>
-  <si>
     <t>Financial Advisory &amp; Planning</t>
   </si>
   <si>
@@ -491,6 +488,9 @@
  • MongoDB: MongoDB Atlas; MongoDB Enterprise Advanced; MongoDB Community Edition; Atlas Charts; Atlas Data Federation; Atlas Search; Atlas Online Archive; Atlas App Services; Atlas Device SDKs 
 • Oracle: Autonomous Transaction Processing; Autonomous Data Warehouse; Autonomous JSON Database; APEX Application Development; 
 Oracle Exadata Database Services; Exadata ,OCI Dedicated Region; Oracle HeatWave MySQL; Oracle NoSQL Database Cloud Service; OCI Cache for Redis; OCI Database with PostgreSQL</t>
+  </si>
+  <si>
+    <t>Software Development/Mgmt.</t>
   </si>
 </sst>
 </file>
@@ -887,10 +887,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:XEZ400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="122" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="67.42578125" defaultRowHeight="15"/>
@@ -922,7 +923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" hidden="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -930,16 +931,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -947,16 +948,16 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -964,16 +965,16 @@
         <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -981,16 +982,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -998,16 +999,16 @@
         <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1015,16 +1016,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1032,16 +1033,16 @@
         <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1049,16 +1050,16 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1066,16 +1067,16 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1083,16 +1084,16 @@
         <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1100,16 +1101,16 @@
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -1117,13 +1118,13 @@
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1131,36 +1132,36 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1168,16 +1169,16 @@
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -1185,16 +1186,16 @@
         <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1202,16 +1203,16 @@
         <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
@@ -1219,16 +1220,16 @@
         <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1236,16 +1237,16 @@
         <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -1253,16 +1254,16 @@
         <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
@@ -1270,16 +1271,16 @@
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1287,118 +1288,118 @@
         <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1">
       <c r="A28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1">
+      <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="B29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1">
       <c r="A30" s="4" t="s">
         <v>20</v>
       </c>
@@ -1406,183 +1407,183 @@
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1">
       <c r="A31" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1">
+      <c r="A32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1">
       <c r="A33" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1">
       <c r="A34" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1">
       <c r="A35" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1">
       <c r="A36" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1">
       <c r="A37" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1">
       <c r="A38" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1">
       <c r="A39" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1">
       <c r="A40" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3027,7 +3028,13 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <autoFilter ref="A1:B40" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B40" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Software Development &amp; Mgmt."/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" cellComments="asDisplayed"/>
 </worksheet>
